--- a/biology/Botanique/Courbaril/Courbaril.xlsx
+++ b/biology/Botanique/Courbaril/Courbaril.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenaea courbaril
 Le courbaril (Hymenaea courbaril) est un arbre tropical d'Amérique du Sud de la famille des Fabacées dont le bois est recherché et exploité pour ses qualités mécaniques. On le trouve sous le nom de jatoba dans de nombreux pays.
@@ -513,7 +525,9 @@
           <t>Habitat et exigences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Natif d’Amérique tropicale, on le retrouve également dans les Antilles, l’Amérique centrale et Amérique du Sud (zone USDA 10). Il est fréquent en Guyane et il est planté en bien des endroits à Cayenne pour son houppier élégant.
 </t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le courbaril est un immense arbre de la canopée, s'élevant à plus de 30 mètres de haut dans la forêt amazonienne. Le tronc est cylindrique. Ses feuilles alternes d'un vert éclatant sont composées de deux folioles asymétriques.
 Ses fleurs blanches et odorantes sont rassemblées en grappe. La floraison a lieu entre avril et mai.
@@ -578,7 +594,9 @@
           <t>Utilisation du bois</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois de cœur est brun à rouge violacé ou orange à brun violacé, presque noir, avec veines ou sans veines. Le bois est très dur et très recherché en ébénisterie pour ses qualités mécaniques. Sa densité est de 0,71 – 0,82 – 0,9 g/cm3. Les fûts mesurent de 10 à 25 mètres de long, leur diamètre est de 0,50 à 0,90 m. Le fil est droit, le veinage est marqué. Son travail est assez difficile mais le résultat très beau.
 </t>
@@ -609,7 +627,9 @@
           <t>Utilisation en tant que plante médicinale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Courbaril est utilisé depuis longtemps par les tribus indiennes d'Amazonie. Il a été enregistré dans la Brazilian herbal medicine en 1930. Il a été d'abord décrit par le Dr. J. Monteiro Silva qui le recommanda dans les diarrhées, les dysenteries, l'asthénie, les gaz intestinaux, la dyspepsie, l'hématurie et l'hémoptysie.
 Les sécrétions de Courbaril, appelées "gomme copal", sont utilisées comme médicament mais aussi comme vernis qui était très apprécié par les sociétés amérindiennes et néocoloniales.
@@ -642,7 +662,9 @@
           <t>Synonyme et noms communs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le Courbaril ou Jatoba est connu sous de très nombreux autres noms, en voici une liste :
 Synonymes: Hymenaea animifera, H. candolleana, H. multiflora, H. resinifera, H. retusa, H. stilbocarpa, Inga megacarpa
@@ -676,7 +698,9 @@
           <t>Légende</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux Antilles, une légende raconte qu'à la nuit tombée, si on se place entre un Fromager et un Courbaril (dont les feuilles se mettent par deux la nuit) et que l'on émet le vœu de pouvoir aller où bon nous semble, ce vœu se réalisera…
 </t>
